--- a/Database/booksDB.xlsx
+++ b/Database/booksDB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,11 +1623,7 @@
       <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
@@ -1636,16 +1632,8 @@
       <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>і</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>0 pages</t>
-        </is>
-      </c>
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -1653,141 +1641,212 @@
       <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>і</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>0 pages</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>paper book</t>
-        </is>
-      </c>
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>0 pages</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>e book</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>0 pages</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>e book</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>133</v>
-      </c>
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1 pages</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>0 pages</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>e book</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>134</v>
-      </c>
-      <c r="F135" t="inlineStr">
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ergaer</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ge pages</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>e book</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1 pages</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>e book</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>140</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>`</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0 pages</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>e book</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>141</v>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>Bohdan</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>0 pages</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1111111 pages</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>e book</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>135</v>
-      </c>
-      <c r="F136" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>142</v>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>Bohdan</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>name</t>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
